--- a/data/n2v/tables/model-1-1536-20230830-75.xlsx
+++ b/data/n2v/tables/model-1-1536-20230830-75.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1113" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1114" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1115" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1138" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1141" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1153" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1162" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1170" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1186" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1192" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1198" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1201" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1214" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1216" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="C1220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1220" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1224" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         </is>
       </c>
       <c r="C1225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1225" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1226" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1228" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         </is>
       </c>
       <c r="C1231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1231" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         </is>
       </c>
       <c r="C1237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1237" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         </is>
       </c>
       <c r="C1239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1239" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         </is>
       </c>
       <c r="C1241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1241" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         </is>
       </c>
       <c r="C1244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1244" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1247" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1249" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         </is>
       </c>
       <c r="C1253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1253" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1259" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         </is>
       </c>
       <c r="C1261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         </is>
       </c>
       <c r="C1263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1263" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C1265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1265" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1266" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         </is>
       </c>
       <c r="C1268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1269" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         </is>
       </c>
       <c r="C1272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1272" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1276" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1289" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="C1290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         </is>
       </c>
       <c r="C1294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1294" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1305" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="C1308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1308" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         </is>
       </c>
       <c r="C1316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1316" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         </is>
       </c>
       <c r="C1323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         </is>
       </c>
       <c r="C1325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         </is>
       </c>
       <c r="C1326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="C1329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1329" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         </is>
       </c>
       <c r="C1331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         </is>
       </c>
       <c r="C1334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         </is>
       </c>
       <c r="C1340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1340" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         </is>
       </c>
       <c r="C1341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         </is>
       </c>
       <c r="C1344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="C1349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         </is>
       </c>
       <c r="C1365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         </is>
       </c>
       <c r="C1368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         </is>
       </c>
       <c r="C1375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         </is>
       </c>
       <c r="C1377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         </is>
       </c>
       <c r="C1382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         </is>
       </c>
       <c r="C1411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1414" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C1419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1419" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="C1422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1422" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         </is>
       </c>
       <c r="C1424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1425" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         </is>
       </c>
       <c r="C1430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         </is>
       </c>
       <c r="C1441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1441" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         </is>
       </c>
       <c r="C1443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         </is>
       </c>
       <c r="C1446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         </is>
       </c>
       <c r="C1459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         </is>
       </c>
       <c r="C1460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="C1469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         </is>
       </c>
       <c r="C1474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         </is>
       </c>
       <c r="C1476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         </is>
       </c>
       <c r="C1480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         </is>
       </c>
       <c r="C1495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1495" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         </is>
       </c>
       <c r="C1510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1510" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         </is>
       </c>
       <c r="C1516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1516" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         </is>
       </c>
       <c r="C1519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1519" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         </is>
       </c>
       <c r="C1537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1537" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         </is>
       </c>
       <c r="C1566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1566" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         </is>
       </c>
       <c r="C1569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1569" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         </is>
       </c>
       <c r="C1571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1571" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         </is>
       </c>
       <c r="C1574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1574" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         </is>
       </c>
       <c r="C1576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1576" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         </is>
       </c>
       <c r="C1582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1582" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         </is>
       </c>
       <c r="C1598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1598" t="inlineStr">
         <is>
